--- a/log_history/Y2_B2526_Microbiology_scanner1762940091758_3e0347dea3ea623e0e32deba19124dd3d1d12056a69c51f7536f13f616d020d3.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1762940091758_3e0347dea3ea623e0e32deba19124dd3d1d12056a69c51f7536f13f616d020d3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Microbiology_scanner1762940091758_3e0347dea3ea623e0e32deba19124dd3d1d12056a69c51f7536f13f616d020d3.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1762940091758_3e0347dea3ea623e0e32deba19124dd3d1d12056a69c51f7536f13f616d020d3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Microbiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
